--- a/data/sources/logement_tous_regime.xlsx
+++ b/data/sources/logement_tous_regime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="495" windowWidth="20715" windowHeight="6180" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22710" windowHeight="7335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="benef" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="sources" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="A1:N23"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Tableau 2 - Bénéficiaires tous régimes France métropolitaine</t>
   </si>
@@ -99,16 +100,20 @@
   <si>
     <t>nb bénéficiaire tous régime 2011 = nb bénéficiaires CAF 2011 x (nb bénéficiaire tous régime 2010 / nb bénéficiaire CAF 2010)</t>
   </si>
+  <si>
+    <t xml:space="preserve">  Dont Aide Personnalisée au Logement - FNH (APL)(hors foyer)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0&quot;  &quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0\ _€"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000\ _€"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -321,7 +326,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -384,6 +389,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,15 +413,10 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -852,18 +855,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="66.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
@@ -891,8 +898,11 @@
       <c r="I1" s="17">
         <v>2010</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="17">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -906,22 +916,25 @@
         <v>3143100000</v>
       </c>
       <c r="E2" s="32">
-        <v>3252800000</v>
+        <v>3249280000</v>
       </c>
       <c r="F2" s="32">
-        <v>3296500000</v>
+        <v>3292910000</v>
       </c>
       <c r="G2" s="32">
-        <v>3557100000</v>
+        <v>3553250000</v>
       </c>
       <c r="H2" s="32">
-        <v>3671100000</v>
+        <v>3667020000</v>
       </c>
       <c r="I2" s="32">
-        <v>3691600000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3691580000</v>
+      </c>
+      <c r="J2" s="45">
+        <v>3741390000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -935,22 +948,25 @@
         <v>4046500000</v>
       </c>
       <c r="E3" s="32">
-        <v>4172899999.9999995</v>
+        <v>4140540000</v>
       </c>
       <c r="F3" s="32">
-        <v>4228600000.0000005</v>
+        <v>4196540000</v>
       </c>
       <c r="G3" s="32">
-        <v>4620500000</v>
+        <v>4592990000</v>
       </c>
       <c r="H3" s="32">
-        <v>4695100000</v>
+        <v>4666330000</v>
       </c>
       <c r="I3" s="32">
-        <v>4743100000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4715100000</v>
+      </c>
+      <c r="J3" s="45">
+        <v>4799740000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
@@ -964,23 +980,45 @@
         <v>6171800000</v>
       </c>
       <c r="E4" s="32">
-        <v>6235200000</v>
+        <v>5668450000</v>
       </c>
       <c r="F4" s="32">
-        <v>6203000000</v>
+        <v>5587990000</v>
       </c>
       <c r="G4" s="32">
-        <v>6574100000</v>
+        <v>5927900000</v>
       </c>
       <c r="H4" s="32">
-        <v>6719200000</v>
+        <v>6046720000</v>
       </c>
       <c r="I4" s="32">
-        <v>6868300000</v>
-      </c>
-    </row>
+        <v>6161450000</v>
+      </c>
+      <c r="J4" s="45">
+        <v>6428610000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="44"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="44"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1018,13 +1056,13 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1054,7 +1092,7 @@
       <c r="I3" s="7">
         <v>2010</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="34" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1216,8 +1254,8 @@
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1310,33 +1348,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.42578125" style="10"/>
-    <col min="5" max="5" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="10"/>
-    <col min="10" max="10" width="20.28515625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="10"/>
+    <col min="5" max="5" width="7.85546875" style="10" customWidth="1"/>
+    <col min="6" max="10" width="11.42578125" style="10"/>
+    <col min="11" max="11" width="20.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1364,14 +1402,11 @@
       <c r="I2" s="7">
         <v>2010</v>
       </c>
-      <c r="J2" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="7">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1383,10 +1418,9 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1400,28 +1434,27 @@
         <v>13361.4</v>
       </c>
       <c r="E4" s="11">
-        <v>13660.899999999998</v>
+        <v>13058.27</v>
       </c>
       <c r="F4" s="11">
-        <v>13728.1</v>
+        <v>13077.44</v>
       </c>
       <c r="G4" s="11">
-        <v>14751.7</v>
+        <v>14074.14</v>
       </c>
       <c r="H4" s="11">
-        <v>15085.4</v>
+        <v>14380.07</v>
       </c>
       <c r="I4" s="11">
-        <v>15303.000000000002</v>
-      </c>
-      <c r="J4" s="42">
-        <v>15747.941327856246</v>
-      </c>
-      <c r="K4" s="42">
-        <v>15753.236113904937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14568.13</v>
+      </c>
+      <c r="J4" s="11">
+        <f>J5+J6+J7</f>
+        <v>14969.739999999998</v>
+      </c>
+      <c r="K4" s="43"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1435,28 +1468,25 @@
         <v>3143.1</v>
       </c>
       <c r="E5" s="11">
-        <v>3252.8</v>
+        <v>3249.28</v>
       </c>
       <c r="F5" s="11">
-        <v>3296.5</v>
+        <v>3292.91</v>
       </c>
       <c r="G5" s="11">
-        <v>3557.1</v>
+        <v>3553.25</v>
       </c>
       <c r="H5" s="11">
-        <v>3671.1</v>
+        <v>3667.02</v>
       </c>
       <c r="I5" s="11">
-        <v>3691.6</v>
-      </c>
-      <c r="J5" s="42">
-        <v>3742.2190352192756</v>
-      </c>
-      <c r="K5" s="42">
-        <v>3731.3106991304762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3691.58</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3741.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1470,30 +1500,27 @@
         <v>4046.5</v>
       </c>
       <c r="E6" s="11">
-        <v>4172.8999999999996</v>
+        <v>4140.54</v>
       </c>
       <c r="F6" s="11">
-        <v>4228.6000000000004</v>
+        <v>4196.54</v>
       </c>
       <c r="G6" s="11">
-        <v>4620.5</v>
+        <v>4592.99</v>
       </c>
       <c r="H6" s="11">
-        <v>4695.1000000000004</v>
+        <v>4666.33</v>
       </c>
       <c r="I6" s="11">
-        <v>4743.1000000000004</v>
-      </c>
-      <c r="J6" s="42">
-        <v>4838.9527044691049</v>
-      </c>
-      <c r="K6" s="42">
-        <v>4883.8143383628303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4715.1000000000004</v>
+      </c>
+      <c r="J6" s="11">
+        <v>4799.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B7" s="26">
         <v>6076.7</v>
@@ -1505,26 +1532,31 @@
         <v>6171.8</v>
       </c>
       <c r="E7" s="11">
-        <v>6235.2</v>
+        <v>5668.45</v>
       </c>
       <c r="F7" s="11">
-        <v>6203</v>
+        <v>5587.99</v>
       </c>
       <c r="G7" s="11">
-        <v>6574.1</v>
+        <v>5927.9</v>
       </c>
       <c r="H7" s="11">
-        <v>6719.2</v>
+        <v>6046.72</v>
       </c>
       <c r="I7" s="11">
-        <v>6868.3</v>
-      </c>
-      <c r="J7" s="42">
-        <v>7167.1138320968694</v>
-      </c>
-      <c r="K7" s="42">
-        <v>7128.3597045745064</v>
-      </c>
+        <v>6161.45</v>
+      </c>
+      <c r="J7" s="11">
+        <v>6428.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/sources/logement_tous_regime.xlsx
+++ b/data/sources/logement_tous_regime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="22710" windowHeight="7335" activeTab="3"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="11670" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="benef" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="sources" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1:N23"/>
+  <oleSize ref="A1:H41"/>
 </workbook>
 </file>
 
@@ -113,7 +113,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0&quot;  &quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0\ _€"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000\ _€"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000\ _€"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -326,7 +326,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -392,6 +392,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,10 +416,6 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -722,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,12 +857,12 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -930,7 +929,7 @@
       <c r="I2" s="32">
         <v>3691580000</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="37">
         <v>3741390000</v>
       </c>
     </row>
@@ -962,7 +961,7 @@
       <c r="I3" s="32">
         <v>4715100000</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="37">
         <v>4799740000</v>
       </c>
     </row>
@@ -994,28 +993,23 @@
       <c r="I4" s="32">
         <v>6161450000</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="37">
         <v>6428610000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K7" s="44"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K8" s="44"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1056,13 +1050,13 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1254,8 +1248,8 @@
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1350,7 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5:J7"/>
     </sheetView>
   </sheetViews>
@@ -1366,13 +1360,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1452,7 +1446,7 @@
         <f>J5+J6+J7</f>
         <v>14969.739999999998</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1556,7 +1550,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="42"/>
+      <c r="J8" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
